--- a/Guru99Demo/testdata/demodata.xlsx
+++ b/Guru99Demo/testdata/demodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15315" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14850" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="delete" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>TestCases</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>customerID</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -484,9 +487,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,15 +562,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -658,7 +661,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,9 +708,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,6 +728,12 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Guru99Demo/testdata/demodata.xlsx
+++ b/Guru99Demo/testdata/demodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14850" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14850" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>dob</t>
   </si>
   <si>
-    <t>Guru Demo</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>guru.demo@gmail.com</t>
-  </si>
-  <si>
     <t>$123456</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>Guru1 Demo</t>
+  </si>
+  <si>
+    <t>guru1.demo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,28 +581,28 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -613,22 +613,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>33039</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>411052</v>
@@ -637,10 +637,10 @@
         <v>9999999999</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -666,16 +666,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>56769</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -718,21 +718,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
